--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/20/seed2/result_data_KNN.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.498</v>
+        <v>-12.726</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.092000000000001</v>
+        <v>6.427</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -519,13 +519,13 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.05</v>
+        <v>-12.836</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>12.952</v>
+        <v>13.034</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>13.336</v>
+        <v>13.649</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.396</v>
+        <v>13.071</v>
       </c>
     </row>
     <row r="12">
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>7.906000000000001</v>
+        <v>7.166000000000001</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -703,10 +703,10 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>6.464</v>
+        <v>5.952999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-10.89</v>
+        <v>-12.093</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -729,7 +729,7 @@
         <v>-6.63</v>
       </c>
       <c r="E17" t="n">
-        <v>13.156</v>
+        <v>13.653</v>
       </c>
     </row>
     <row r="18">
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>6.356</v>
+        <v>6.6</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.294</v>
+        <v>12.694</v>
       </c>
     </row>
     <row r="22">
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>7.140000000000001</v>
+        <v>6.609999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.85</v>
+        <v>6.355</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
